--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -378,7 +378,7 @@
   <dimension ref="B3:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -387,8 +387,8 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="1" t="s">
-        <v>4</v>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>5</v>
@@ -417,6 +417,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>GiantSpiderRoom</t>
-  </si>
-  <si>
-    <t>FindDaggerRoom</t>
   </si>
   <si>
     <t>LeaveCaveRoom</t>
@@ -378,7 +375,7 @@
   <dimension ref="B3:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -391,7 +388,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -405,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -413,18 +410,18 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -440,11 +437,8 @@
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -452,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -24,13 +24,16 @@
     <t>EmptyCavePath</t>
   </si>
   <si>
-    <t>GiantSpiderRoom</t>
-  </si>
-  <si>
     <t>LeaveCaveRoom</t>
   </si>
   <si>
     <t>Boundary</t>
+  </si>
+  <si>
+    <t>Syntax: tile_name, other attributes</t>
+  </si>
+  <si>
+    <t>Other attributes are added with syntax "&lt;object name&gt;:&lt;quantity&gt;"</t>
   </si>
 </sst>
 </file>
@@ -66,10 +69,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B3" sqref="B3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -383,50 +392,58 @@
     <col min="1" max="16384" width="17.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
@@ -438,15 +455,15 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -28,12 +28,6 @@
   </si>
   <si>
     <t>Boundary</t>
-  </si>
-  <si>
-    <t>Syntax: tile_name, other attributes</t>
-  </si>
-  <si>
-    <t>Other attributes are added with syntax "&lt;object name&gt;:&lt;quantity&gt;"</t>
   </si>
 </sst>
 </file>
@@ -69,16 +63,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,48 +369,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="17.42578125" style="1"/>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="17.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
@@ -430,40 +472,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
+    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>3</v>
+    <row r="8" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="3">
   <si>
     <t>StartingRoom</t>
   </si>
   <si>
     <t>EmptyCavePath</t>
-  </si>
-  <si>
-    <t>LeaveCaveRoom</t>
   </si>
   <si>
     <t>Boundary</t>
@@ -372,7 +369,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -423,84 +420,72 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,15 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="3">
   <si>
     <t>StartingRoom</t>
   </si>
   <si>
-    <t>EmptyCavePath</t>
+    <t>Boundary</t>
   </si>
   <si>
-    <t>Boundary</t>
+    <t>AA_EmptyCave</t>
   </si>
 </sst>
 </file>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -378,7 +378,7 @@
     <col min="2" max="16384" width="17.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,112 +415,368 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS12" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AS13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS19" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS27" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS28" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>12</v>
+      </c>
+      <c r="AS31" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -24,7 +24,7 @@
     <t>Boundary</t>
   </si>
   <si>
-    <t>AA_EmptyCave</t>
+    <t>EmptyCave</t>
   </si>
 </sst>
 </file>
@@ -366,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS31"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -378,7 +378,7 @@
     <col min="2" max="16384" width="17.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,118 +409,16 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -533,11 +431,11 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AS3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -550,11 +448,11 @@
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AS4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -567,215 +465,23 @@
       <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AS5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="AS6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="AS7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS21" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS24" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS25" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS26" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS27" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS30" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>12</v>
-      </c>
-      <c r="AS31" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -26,14 +26,24 @@
   <si>
     <t>EmptyCave</t>
   </si>
+  <si>
+    <t>EmptyCave,$Slime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,8 +72,8 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -368,8 +378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -426,7 +436,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>EmptyCave,$Slime</t>
+  </si>
+  <si>
+    <t>EmptyCave,$Slime.2</t>
   </si>
 </sst>
 </file>
@@ -436,10 +439,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>1</v>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -27,10 +27,13 @@
     <t>EmptyCave</t>
   </si>
   <si>
-    <t>EmptyCave,$Slime</t>
+    <t>EmptyCave,$Slime.2</t>
   </si>
   <si>
-    <t>EmptyCave,$Slime.2</t>
+    <t>EmptyCave,#Restorative.1.h0</t>
+  </si>
+  <si>
+    <t>EmptyCave,#Gold.23.h0</t>
   </si>
 </sst>
 </file>
@@ -90,6 +93,136 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>410306</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>234462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>446941</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1839056" y="3912577"/>
+          <a:ext cx="5861539" cy="1655883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>LEGEND:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>$ / spawn npc; &lt;classname&gt;.&lt;count&gt;.&lt;hidden [h(factor)] (leave blank for visible)&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>= / assign parameter; &lt;param&gt;=&lt;value&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t># / spawn item; &lt;classname&gt;.&lt;count&gt;.&lt;hidden </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[h(factor)]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(leave blank for visible)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>&gt; - Gold will only spawn (1) pouch with the amount</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> declared</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -439,10 +572,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>1</v>
@@ -453,7 +586,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -476,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>1</v>
@@ -501,6 +634,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>EmptyCave,#Gold.23.h0</t>
+  </si>
+  <si>
+    <t>EmptyCave,!Gold_from_heaven.0.0</t>
   </si>
 </sst>
 </file>
@@ -215,6 +218,15 @@
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
             <a:t> declared</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>! / spawn event; &lt;classname&gt;.&lt;repeat? 0 or 1&gt;.&lt;parallel? 0 or 1&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
@@ -515,7 +527,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K7"/>
+      <selection activeCell="K7" sqref="B2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -606,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -36,7 +36,13 @@
     <t>EmptyCave,#Gold.23.h0</t>
   </si>
   <si>
-    <t>EmptyCave,!Gold_from_heaven.0.0</t>
+    <t>EmptyCave,!Block.east</t>
+  </si>
+  <si>
+    <t>EmptyCave,!Block</t>
+  </si>
+  <si>
+    <t>EmptyCave,!GoldFromHeaven</t>
   </si>
 </sst>
 </file>
@@ -226,7 +232,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
-            <a:t>! / spawn event; &lt;classname&gt;.&lt;repeat? 0 or 1&gt;.&lt;parallel? 0 or 1&gt;</a:t>
+            <a:t>! / spawn event; &lt;classname&gt;.&lt;repeat? r or blank&gt;.&lt;parallel? p or blank&gt;.&lt;kwargs, blank for none&gt;</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000"/>
         </a:p>
@@ -527,7 +533,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K7" sqref="B2:K7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -604,6 +610,9 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -615,10 +624,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -36,13 +36,10 @@
     <t>EmptyCave,#Gold.23.h0</t>
   </si>
   <si>
-    <t>EmptyCave,!Block.east</t>
+    <t>EmptyCave,!GoldFromHeaven</t>
   </si>
   <si>
-    <t>EmptyCave,!Block</t>
-  </si>
-  <si>
-    <t>EmptyCave,!GoldFromHeaven</t>
+    <t>EmptyCave,@Hidden_Wall_Switch.1.h0,!Block.east,!Story.0.r</t>
   </si>
 </sst>
 </file>
@@ -116,8 +113,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>446941</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175845</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -127,7 +124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1839056" y="3912577"/>
-          <a:ext cx="5861539" cy="1655883"/>
+          <a:ext cx="5861539" cy="3949211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -234,7 +231,47 @@
             <a:rPr lang="en-US" sz="1000" baseline="0"/>
             <a:t>! / spawn event; &lt;classname&gt;.&lt;repeat? r or blank&gt;.&lt;parallel? p or blank&gt;.&lt;kwargs, blank for none&gt;</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1000" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t>@ / spawn object; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&lt;classname&gt;.&lt;count&gt;.&lt;hidden [h(factor)] (leave blank for visible)&gt;</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -533,7 +570,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -610,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -624,10 +661,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -27,19 +27,16 @@
     <t>EmptyCave</t>
   </si>
   <si>
-    <t>EmptyCave,$Slime.2</t>
-  </si>
-  <si>
     <t>EmptyCave,#Restorative.1.h0</t>
   </si>
   <si>
     <t>EmptyCave,#Gold.23.h0</t>
   </si>
   <si>
-    <t>EmptyCave,!GoldFromHeaven</t>
+    <t>EmptyCave,@Hidden_Wall_Switch.1.h0,!Block.east,!Story.0.r</t>
   </si>
   <si>
-    <t>EmptyCave,@Hidden_Wall_Switch.1.h0,!Block.east,!Story.0.r</t>
+    <t>EmptyCave,@Wall_Inscription.1.v0</t>
   </si>
 </sst>
 </file>
@@ -267,7 +264,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;classname&gt;.&lt;count&gt;.&lt;hidden [h(factor)] (leave blank for visible)&gt;</a:t>
+            <a:t>&lt;classname&gt;.&lt;count&gt;.&lt;hidden [h(factor)] (leave blank for visible)&gt; - Also accepts arbitrary values like v0, which it passes as a list to param</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000">
             <a:effectLst/>
@@ -569,14 +566,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="17.42578125" style="1"/>
+    <col min="2" max="16384" width="17.375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -641,13 +638,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
@@ -664,10 +661,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>1</v>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>EmptyCave,@Wall_Inscription.1.v0</t>
+  </si>
+  <si>
+    <t>EmptyCave,!Story.1.r</t>
+  </si>
+  <si>
+    <t>EmptyCave,$Slime.2</t>
   </si>
 </sst>
 </file>
@@ -172,7 +178,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>= / assign parameter; &lt;param&gt;=&lt;value&gt;</a:t>
+            <a:t>= / assign parameter to tile; &lt;param&gt;=&lt;value&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -566,14 +572,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="17.375" style="1"/>
+    <col min="2" max="16384" width="17.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -629,6 +635,9 @@
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,6 +656,12 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -666,6 +681,12 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>1</v>
       </c>
@@ -674,6 +695,12 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
@@ -681,6 +708,9 @@
     <row r="7" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>1</v>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>EmptyCave,!Story.1.r</t>
-  </si>
-  <si>
-    <t>EmptyCave,$Slime.2</t>
   </si>
 </sst>
 </file>
@@ -573,7 +570,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -696,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>2</v>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -41,12 +41,15 @@
   <si>
     <t>EmptyCave,!Story.1.r</t>
   </si>
+  <si>
+    <t>EmptyCave,@Wooden_Chest.1.#Gold:12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +64,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,18 +102,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -570,7 +614,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -615,7 +659,16 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -623,19 +676,24 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -643,25 +701,28 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -669,22 +730,26 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -692,13 +757,20 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -706,10 +778,18 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -27,22 +27,25 @@
     <t>EmptyCave</t>
   </si>
   <si>
-    <t>EmptyCave,#Restorative.1.h0</t>
-  </si>
-  <si>
-    <t>EmptyCave,#Gold.23.h0</t>
-  </si>
-  <si>
-    <t>EmptyCave,@Hidden_Wall_Switch.1.h0,!Block.east,!Story.0.r</t>
-  </si>
-  <si>
-    <t>EmptyCave,@Wall_Inscription.1.v0</t>
-  </si>
-  <si>
-    <t>EmptyCave,!Story.1.r</t>
-  </si>
-  <si>
-    <t>EmptyCave,@Wooden_Chest.1.#Gold:12</t>
+    <t>EmptyCave|@Wall_Inscription.1.v0</t>
+  </si>
+  <si>
+    <t>EmptyCave|#Gold.23.h0</t>
+  </si>
+  <si>
+    <t>EmptyCave|@Wooden_Chest.1.#Gold:12.#Restorative:2</t>
+  </si>
+  <si>
+    <t>EmptyCave|#Restorative.1.h0</t>
+  </si>
+  <si>
+    <t>EmptyCave|@Wooden_Chest.1.#Gold:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmptyCave|@Hidden_Wall_Switch.1.h0|!Block.east|!Story.0.r|@Tile_Description.1.The wall here feels warmer than the rest of the cavern. There are scuff marks on the floor that stop abruptly where the wall and floor meet. Jean can hear the muffled sound of flowing water. </t>
+  </si>
+  <si>
+    <t>EmptyCave|!Story.1.r.p</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>= / assign parameter to tile; &lt;param&gt;=&lt;value&gt;</a:t>
+            <a:t>~ / assign parameter to tile; &lt;param&gt;=&lt;value&gt;</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -614,7 +617,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -681,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -709,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>2</v>
@@ -735,10 +738,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -746,7 +749,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
@@ -794,6 +797,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>StartingRoom</t>
   </si>
@@ -42,10 +42,13 @@
     <t>EmptyCave|@Wooden_Chest.1.#Gold:12</t>
   </si>
   <si>
-    <t xml:space="preserve">EmptyCave|@Hidden_Wall_Switch.1.h0|!Block.east|!Story.0.r|@Tile_Description.1.The wall here feels warmer than the rest of the cavern. There are scuff marks on the floor that stop abruptly where the wall and floor meet. Jean can hear the muffled sound of flowing water. </t>
-  </si>
-  <si>
-    <t>EmptyCave|!Story.1.r.p</t>
+    <t>BlankTile|@Tile_Description.1.A long rock ledge juts out from the opening to the west, crossing the chasm below and connecting to another rock wall to the east. The sunlight is blinding, with an open sky overhead. Far below, a river rushes beneath the ledge, spraying water in all directions as it crashes against the walls. The twittering of nearby birds can be heard. Banding to the east and west, a line of rock spires can be seen, including the two adjacent walls, all presumably connected by similar rock ledges. There's a warm breeze blowing mildly from the north~</t>
+  </si>
+  <si>
+    <t>BlankTile|@Wall_Switch.1.h0.!Story:0|!Block.east|@Tile_Description.1.The wall here feels warmer than the rest of the cavern. There are scuff marks on the floor that stop abruptly where the wall and floor meet. Jean can hear the muffled sound of flowing water~</t>
+  </si>
+  <si>
+    <t>BlankTile|!Block.east|@Tile_Description.1.The rock ledge continues to the east and terminates as it reaches the wall. From this vantage point, large mountains can be seen to the northwest, covered in white clouds at their crowns~|@Wall_Switch.1.!Story:1</t>
   </si>
 </sst>
 </file>
@@ -314,7 +317,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>&lt;classname&gt;.&lt;count&gt;.&lt;hidden [h(factor)] (leave blank for visible)&gt; - Also accepts arbitrary values like v0, which it passes as a list to param</a:t>
+            <a:t>&lt;classname&gt;.&lt;count&gt;.&lt;hidden [h(factor)] (leave blank for visible)&gt; - Also accepts arbitrary values like v0, which it passes as a list to param. For Tile_Descriptions,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> end with '~' instead of '.'</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000">
             <a:effectLst/>
@@ -616,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -712,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>2</v>
@@ -797,9 +812,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
+++ b/Heart_Of_Virtue/heart_of_virtue/resources/map_editor.xlsx
@@ -632,7 +632,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
